--- a/biology/Microbiologie/Philasteridae/Philasteridae.xlsx
+++ b/biology/Microbiologie/Philasteridae/Philasteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Philasteridae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Philasterida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Philasterides, composé du préfixe phil- (du grec φίλος / filos, « aimé », et du suffixe -asterides, peut-être par allusion aux étoiles de mer, littéralement « ami des étoiles de mer », peut-être en raison du parasitisme de ce cilié dans ces invertébrés.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Philasteridae ont une taille petite (&lt; 80 µm) à grande (&gt; 200µm). Ils sont allongés ou en forme de doigt, bien qu'ovoïde chez les genres plus petits, avec une extrémité antérieure carrément effilée. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), dense ; ils possèdent un cil caudal, unique, parfois très discret. Leur région buccale est une cavité ou une dépression située dans leur partie antérieure, généralement peu profonde, s'étendant rarement jusqu'à la partie équatoriale du corps. Leur polykinétide oral 1 est triangulaire ; il est de même taille égal ou plus petit que le polykinétide oral 2. Leur scutica[note 1] est allongée, et est comme une extension postérieure du paroral dans la partie méridienne. Leur macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils sont bactérivores, mais parfois histophage (se nourrissent des tissus de leur hôte)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Philasteridae ont une taille petite (&lt; 80 µm) à grande (&gt; 200µm). Ils sont allongés ou en forme de doigt, bien qu'ovoïde chez les genres plus petits, avec une extrémité antérieure carrément effilée. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), dense ; ils possèdent un cil caudal, unique, parfois très discret. Leur région buccale est une cavité ou une dépression située dans leur partie antérieure, généralement peu profonde, s'étendant rarement jusqu'à la partie équatoriale du corps. Leur polykinétide oral 1 est triangulaire ; il est de même taille égal ou plus petit que le polykinétide oral 2. Leur scutica[note 1] est allongée, et est comme une extension postérieure du paroral dans la partie méridienne. Leur macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils sont bactérivores, mais parfois histophage (se nourrissent des tissus de leur hôte).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Philasteridae vivent en eau de mer, principalement sous formes libres, bien que plusieurs espèces soient des parasites facultatifs, étant histophages sur ou dans les invertébrés et les vertébrés[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Philasteridae vivent en eau de mer, principalement sous formes libres, bien que plusieurs espèces soient des parasites facultatifs, étant histophages sur ou dans les invertébrés et les vertébrés.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 mars 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 mars 2024) :
 Helicostoma Cohn, 1866
 Madsenia Kahl, 1934
 Paraphilaster Grolière, de Puytorac &amp; Grain, 1978
@@ -615,7 +635,7 @@
 Espèce type : Philasterides armata (Kahl, 1926) Kahl, 1931
 Autre espèce : Philasterides dicentrarchi (en)
 Porpostoma Moebius, 1888
-Selon Lynn (2010)[1]
+Selon Lynn (2010)
 Helicostoma Cohn, 1866
 Kahlilembus Grolière &amp; Couteaux, 1984
 Madsenia Kahl, 1934
@@ -651,9 +671,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Philasteridae Kahl, 1931[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Philasteridae Kahl, 1931.
 </t>
         </is>
       </c>
